--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -192,6 +192,36 @@
   </si>
   <si>
     <t>收集</t>
+  </si>
+  <si>
+    <t>item.ItemType</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>基础资源</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>item.ItemQuality</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>稀有</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -1452,6 +1482,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="2:10">
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:10">
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:10">
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>

--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="264">
   <si>
     <t>##var</t>
   </si>
@@ -222,6 +222,748 @@
   </si>
   <si>
     <t>稀有</t>
+  </si>
+  <si>
+    <t>zsEnum.IslandBonusType</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>无加成</t>
+  </si>
+  <si>
+    <t>FarmProductionBonus</t>
+  </si>
+  <si>
+    <t>农场产出加成</t>
+  </si>
+  <si>
+    <t>LumberyardOutputBonus</t>
+  </si>
+  <si>
+    <t>伐木场产出加成</t>
+  </si>
+  <si>
+    <t>QuarryOutputBonus</t>
+  </si>
+  <si>
+    <t>采石场产出加成</t>
+  </si>
+  <si>
+    <t>zsEnum.IslandType</t>
+  </si>
+  <si>
+    <t>GrasslandIslands</t>
+  </si>
+  <si>
+    <t>草原岛屿</t>
+  </si>
+  <si>
+    <t>ForestIsland</t>
+  </si>
+  <si>
+    <t>森林岛屿</t>
+  </si>
+  <si>
+    <t>RockyIsland</t>
+  </si>
+  <si>
+    <t>岩石岛屿</t>
+  </si>
+  <si>
+    <t>WaterIslands</t>
+  </si>
+  <si>
+    <t>水域岛屿</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zsEnum.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>ConstructionMaterials</t>
+  </si>
+  <si>
+    <t>建造材料</t>
+  </si>
+  <si>
+    <t>GourmetIngredients</t>
+  </si>
+  <si>
+    <t>美食材料</t>
+  </si>
+  <si>
+    <t>SpeedBoostItem</t>
+  </si>
+  <si>
+    <t>加速道具</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>燃油</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>Match3Prop</t>
+  </si>
+  <si>
+    <t>三消道具</t>
+  </si>
+  <si>
+    <t>Match3Stamina</t>
+  </si>
+  <si>
+    <t>三消体力</t>
+  </si>
+  <si>
+    <t>zsEnum.BuildingType</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>核心类</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>供给类</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>产出类</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>服务类</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>体验类</t>
+  </si>
+  <si>
+    <t>PublicBridge</t>
+  </si>
+  <si>
+    <t>公众桥</t>
+  </si>
+  <si>
+    <t>StaffBridge</t>
+  </si>
+  <si>
+    <t>员工桥</t>
+  </si>
+  <si>
+    <t>zsEnum.BuildingSubtype</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>EngineeringOffice</t>
+  </si>
+  <si>
+    <t>TalentMarket</t>
+  </si>
+  <si>
+    <t>人才市场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ield</t>
+    </r>
+  </si>
+  <si>
+    <t>油田</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>炼油厂</t>
+  </si>
+  <si>
+    <t>PowerPlant</t>
+  </si>
+  <si>
+    <t>发电站</t>
+  </si>
+  <si>
+    <t>Farmland</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ite</t>
+    </r>
+  </si>
+  <si>
+    <t>伐木场</t>
+  </si>
+  <si>
+    <t>Quarry</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Livestock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arm</t>
+    </r>
+  </si>
+  <si>
+    <t>畜牧场</t>
+  </si>
+  <si>
+    <t>NightMarketSnackStall</t>
+  </si>
+  <si>
+    <t>夜市轻食摊</t>
+  </si>
+  <si>
+    <t>ForestTeahouse</t>
+  </si>
+  <si>
+    <t>森林茶屋</t>
+  </si>
+  <si>
+    <t>StoneOvenPizzeria</t>
+  </si>
+  <si>
+    <t>石窑披萨坊</t>
+  </si>
+  <si>
+    <t>HandBrewCoffeeStand</t>
+  </si>
+  <si>
+    <t>手冲咖啡站</t>
+  </si>
+  <si>
+    <t>SeaBreezeJuiceBar</t>
+  </si>
+  <si>
+    <t>海风果汁吧</t>
+  </si>
+  <si>
+    <t>FloatingPierSeafoodStall</t>
+  </si>
+  <si>
+    <t>浮桥海鲜档</t>
+  </si>
+  <si>
+    <t>CantileverSkyTerrace</t>
+  </si>
+  <si>
+    <t>悬挑天境台</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opCircularSwing</t>
+    </r>
+  </si>
+  <si>
+    <t>林梢环形秋千</t>
+  </si>
+  <si>
+    <t>RockyPeakViewingDeck</t>
+  </si>
+  <si>
+    <t>岩顶观景台</t>
+  </si>
+  <si>
+    <t>PuzzleCabin</t>
+  </si>
+  <si>
+    <t>解谜小屋</t>
+  </si>
+  <si>
+    <t>ForestRopePark</t>
+  </si>
+  <si>
+    <t>森林绳索乐园</t>
+  </si>
+  <si>
+    <t>StarrySkyOutdoorCinema</t>
+  </si>
+  <si>
+    <t>星空露天影院</t>
+  </si>
+  <si>
+    <t>GlassBottomViewingPod</t>
+  </si>
+  <si>
+    <t>玻璃底观景舱</t>
+  </si>
+  <si>
+    <t>UnderseaViewingDome</t>
+  </si>
+  <si>
+    <t>海风音乐露台</t>
+  </si>
+  <si>
+    <t>EmployeeBridge</t>
+  </si>
+  <si>
+    <t>普通员工桥</t>
+  </si>
+  <si>
+    <t>TouristBridge</t>
+  </si>
+  <si>
+    <t>普通游客桥</t>
+  </si>
+  <si>
+    <t>zsEnum.UnlockEffect</t>
+  </si>
+  <si>
+    <t>TerminalBuildingBerthSlotsUnlocked</t>
+  </si>
+  <si>
+    <t>航站楼建筑泊位数量开放</t>
+  </si>
+  <si>
+    <t>UnlockedAirshipTypes</t>
+  </si>
+  <si>
+    <t>开放飞艇种类，填飞艇ID</t>
+  </si>
+  <si>
+    <t>GlobalAirshipFlightCycleAcceleration</t>
+  </si>
+  <si>
+    <t>飞艇航班全局周期加速%</t>
+  </si>
+  <si>
+    <t>TerminalHangarCapacityLimit</t>
+  </si>
+  <si>
+    <t>航站楼机库数量上限</t>
+  </si>
+  <si>
+    <t>UnlockedBuildingCategoriesBuildableQuantityPerType</t>
+  </si>
+  <si>
+    <t>解锁建筑大类每种建筑可建数量</t>
+  </si>
+  <si>
+    <t>UnlockedConstructionQueue</t>
+  </si>
+  <si>
+    <t>解锁建造队列</t>
+  </si>
+  <si>
+    <t>UnlockRecruitmentSots</t>
+  </si>
+  <si>
+    <t>解锁招募栏位</t>
+  </si>
+  <si>
+    <t>zsEnum.TalentType</t>
+  </si>
+  <si>
+    <t>EfficiencyRate</t>
+  </si>
+  <si>
+    <t>提升生产/服务速率</t>
+  </si>
+  <si>
+    <t>OutputRate</t>
+  </si>
+  <si>
+    <t>提升产出物数量</t>
+  </si>
+  <si>
+    <t>StorageCapRate</t>
+  </si>
+  <si>
+    <t>提升建筑储量上限</t>
+  </si>
+  <si>
+    <t>zsEnum.Star</t>
+  </si>
+  <si>
+    <t>Star1</t>
+  </si>
+  <si>
+    <t>1星</t>
+  </si>
+  <si>
+    <t>Star2</t>
+  </si>
+  <si>
+    <t>2星</t>
+  </si>
+  <si>
+    <t>Star3</t>
+  </si>
+  <si>
+    <t>3星</t>
+  </si>
+  <si>
+    <t>zsEnum.Profession</t>
+  </si>
+  <si>
+    <t>无职业</t>
+  </si>
+  <si>
+    <t>Oilman</t>
+  </si>
+  <si>
+    <t>采油工</t>
+  </si>
+  <si>
+    <t>RefineryOperator</t>
+  </si>
+  <si>
+    <t>炼油厂操作员</t>
+  </si>
+  <si>
+    <t>PowerEngineer</t>
+  </si>
+  <si>
+    <t>电力工程师</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>农夫</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>伐木工</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>矿工</t>
+  </si>
+  <si>
+    <t>Rancher</t>
+  </si>
+  <si>
+    <t>畜牧员</t>
+  </si>
+  <si>
+    <t>SnackVendor</t>
+  </si>
+  <si>
+    <t>夜市轻食摊售卖员</t>
+  </si>
+  <si>
+    <t>TeaMaster</t>
+  </si>
+  <si>
+    <t>茶师</t>
+  </si>
+  <si>
+    <t>Pizzaiolo</t>
+  </si>
+  <si>
+    <t>披萨师</t>
+  </si>
+  <si>
+    <t>Barista</t>
+  </si>
+  <si>
+    <t>咖啡师</t>
+  </si>
+  <si>
+    <t>JuiceVendor</t>
+  </si>
+  <si>
+    <t>果汁吧售卖员</t>
+  </si>
+  <si>
+    <t>SeafoodVendor</t>
+  </si>
+  <si>
+    <t>海鲜档售卖员</t>
+  </si>
+  <si>
+    <t>SkyMirrorAttendant</t>
+  </si>
+  <si>
+    <t>天镜台引导员</t>
+  </si>
+  <si>
+    <t>CanopySwingOperator</t>
+  </si>
+  <si>
+    <t>林梢环形秋千操作员</t>
+  </si>
+  <si>
+    <t>CliffViewGuide</t>
+  </si>
+  <si>
+    <t>岩顶观景导览员</t>
+  </si>
+  <si>
+    <t>PuzzleCabinHost</t>
+  </si>
+  <si>
+    <t>解谜小屋主持</t>
+  </si>
+  <si>
+    <t>RopeParkCoach</t>
+  </si>
+  <si>
+    <t>绳索乐园教练</t>
+  </si>
+  <si>
+    <t>StarlitCinemaOperator</t>
+  </si>
+  <si>
+    <t>星空露天影院运营员</t>
+  </si>
+  <si>
+    <t>GlassPodGuide</t>
+  </si>
+  <si>
+    <t>玻璃底观景舱导览员</t>
+  </si>
+  <si>
+    <t>UnderseaDomeGuide</t>
+  </si>
+  <si>
+    <t>海底观景穹顶导览员</t>
+  </si>
+  <si>
+    <t>zsEnum.Orientation</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>东北</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>东南</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>Northwest</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>zsEnum.PreferenceTag</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>Sightseeing</t>
+  </si>
+  <si>
+    <t>观景</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>休闲</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>文化</t>
   </si>
 </sst>
 </file>
@@ -234,7 +976,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +995,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -739,137 +1501,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -882,6 +1644,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1202,10 +1980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -1446,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:10">
+    <row r="17" customHeight="1" spans="1:11">
       <c r="H17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +2235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:10">
+    <row r="18" customHeight="1" spans="1:11">
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1471,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:10">
+    <row r="19" customHeight="1" spans="1:11">
       <c r="H19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:10">
+    <row r="20" customHeight="1" spans="1:11">
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1496,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="2:10">
+    <row r="21" customHeight="1" spans="1:11">
       <c r="H21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1507,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:10">
+    <row r="27" customHeight="1" spans="1:11">
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1521,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:10">
+    <row r="28" customHeight="1" spans="1:11">
       <c r="H28" s="2" t="s">
         <v>63</v>
       </c>
@@ -1530,6 +2308,1915 @@
       </c>
       <c r="J28" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="7">
+        <v>2</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:11">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="7">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="7">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:11">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="7">
+        <v>3</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:11">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="7">
+        <v>5</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:11">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="7">
+        <v>6</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:11">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="7">
+        <v>101</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:11">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="7">
+        <v>102</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:11">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:11">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:11">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="7">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:11">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="7">
+        <v>4</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:11">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="7">
+        <v>5</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:11">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="7">
+        <v>6</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:11">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="7">
+        <v>7</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:11">
+      <c r="A52" s="5"/>
+      <c r="B52" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:11">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="7">
+        <v>2</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:11">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="7">
+        <v>3</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:11">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="7">
+        <v>4</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:11">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="7">
+        <v>5</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:11">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="7">
+        <v>6</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:11">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="7">
+        <v>7</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:11">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="7">
+        <v>8</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:11">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="7">
+        <v>9</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:11">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="7">
+        <v>10</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:11">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="7">
+        <v>11</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:11">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="7">
+        <v>12</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:11">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="7">
+        <v>13</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:11">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="7">
+        <v>14</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:11">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="7">
+        <v>15</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:11">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="7">
+        <v>16</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:11">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="7">
+        <v>17</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:11">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="7">
+        <v>18</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:11">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="7">
+        <v>19</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:11">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="7">
+        <v>20</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:11">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="7">
+        <v>21</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:11">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="7">
+        <v>22</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:11">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="7">
+        <v>23</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:11">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="7">
+        <v>24</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:11">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="7">
+        <v>25</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:11">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="7">
+        <v>601</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:11">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="7">
+        <v>701</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:11">
+      <c r="A79" s="5"/>
+      <c r="B79" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:11">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="7">
+        <v>2</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:11">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="7">
+        <v>3</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:11">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="7">
+        <v>4</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:11">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="7">
+        <v>5</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:11">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="7">
+        <v>6</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:11">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="7">
+        <v>7</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:11">
+      <c r="A86" s="5"/>
+      <c r="B86" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" t="s">
+        <v>182</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:11">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" t="s">
+        <v>184</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:11">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:11">
+      <c r="A89" s="5"/>
+      <c r="B89" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:11">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:11">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:11">
+      <c r="A92" s="5"/>
+      <c r="B92" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:11">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" t="s">
+        <v>197</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93">
+        <v>201</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:11">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" t="s">
+        <v>199</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94">
+        <v>202</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:11">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" t="s">
+        <v>201</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95">
+        <v>203</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:11">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96">
+        <v>301</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:11">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97">
+        <v>302</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:11">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" t="s">
+        <v>207</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98">
+        <v>303</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:11">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" t="s">
+        <v>209</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99">
+        <v>304</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:11">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" t="s">
+        <v>211</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100">
+        <v>401</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:11">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" t="s">
+        <v>213</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101">
+        <v>402</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:11">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" t="s">
+        <v>215</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102">
+        <v>403</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:11">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103">
+        <v>404</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:11">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" t="s">
+        <v>219</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104">
+        <v>405</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:11">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" t="s">
+        <v>221</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105">
+        <v>406</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:11">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" t="s">
+        <v>223</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106">
+        <v>501</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:11">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" t="s">
+        <v>225</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107">
+        <v>502</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:11">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" t="s">
+        <v>227</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108">
+        <v>503</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:11">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" t="s">
+        <v>229</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109">
+        <v>504</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:11">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" t="s">
+        <v>231</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110">
+        <v>505</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:11">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" t="s">
+        <v>233</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111">
+        <v>506</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:11">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" t="s">
+        <v>235</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112">
+        <v>507</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:11">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" t="s">
+        <v>237</v>
+      </c>
+      <c r="I113" s="5"/>
+      <c r="J113">
+        <v>508</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:11">
+      <c r="A114" s="5"/>
+      <c r="B114" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:11">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:11">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:11">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:11">
+      <c r="A118" s="5"/>
+      <c r="B118" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:11">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="I119" s="5"/>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:11">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:11">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:11">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I122" s="5"/>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:11">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I123" s="5"/>
+      <c r="J123">
+        <v>5</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:11">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I124" s="5"/>
+      <c r="J124">
+        <v>6</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:11">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125">
+        <v>7</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="329">
   <si>
     <t>##var</t>
   </si>
@@ -738,6 +738,54 @@
     <t>提升建筑储量上限</t>
   </si>
   <si>
+    <t>SpicyChicken</t>
+  </si>
+  <si>
+    <t>能够生产价格更贵的“辣子鸡”</t>
+  </si>
+  <si>
+    <t>TicketPrice</t>
+  </si>
+  <si>
+    <t>提高体验型建筑的门票价格</t>
+  </si>
+  <si>
+    <t>WarehouseMax</t>
+  </si>
+  <si>
+    <t>提高仓库上限</t>
+  </si>
+  <si>
+    <t>BuildingTime</t>
+  </si>
+  <si>
+    <t>降低建筑的升级时间</t>
+  </si>
+  <si>
+    <t>BuildingConsume</t>
+  </si>
+  <si>
+    <t>降低建筑的升级消耗</t>
+  </si>
+  <si>
+    <t>BuildingQueue</t>
+  </si>
+  <si>
+    <t>增加一个新的建筑队列</t>
+  </si>
+  <si>
+    <t>AirshipCrude</t>
+  </si>
+  <si>
+    <t>降低飞艇的油耗</t>
+  </si>
+  <si>
+    <t>ProductionTime</t>
+  </si>
+  <si>
+    <t>降低商品生产需要的时间</t>
+  </si>
+  <si>
     <t>zsEnum.Star</t>
   </si>
   <si>
@@ -924,46 +972,264 @@
     <t>无</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>Sightseeing</t>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>ChineseFood</t>
+  </si>
+  <si>
+    <t>中餐</t>
+  </si>
+  <si>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>面食</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>小吃</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>MilkTea</t>
+  </si>
+  <si>
+    <t>奶茶</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>可乐</t>
+  </si>
+  <si>
+    <t>BackRoom</t>
+  </si>
+  <si>
+    <t>密室</t>
+  </si>
+  <si>
+    <t>TeamBuilding</t>
+  </si>
+  <si>
+    <t>团建</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>旅馆</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>酒饮</t>
+  </si>
+  <si>
+    <t>Regimen</t>
+  </si>
+  <si>
+    <t>养生</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>游乐</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>观影</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>嘉年华</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>化妆</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>珠宝</t>
+  </si>
+  <si>
+    <t>Viewing</t>
   </si>
   <si>
     <t>观景</t>
   </si>
   <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>Leisure</t>
-  </si>
-  <si>
-    <t>休闲</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>娱乐</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>社交</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>文化</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zsEnum.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zsEnum.Age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Group</t>
+    </r>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>少年</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iddle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ged</t>
+    </r>
+  </si>
+  <si>
+    <t>中年</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>老年</t>
+  </si>
+  <si>
+    <t>zsEnum.Employeequality</t>
+  </si>
+  <si>
+    <t>GreyCollar</t>
+  </si>
+  <si>
+    <t>灰领</t>
+  </si>
+  <si>
+    <t>BlueCollar</t>
+  </si>
+  <si>
+    <t>蓝领</t>
+  </si>
+  <si>
+    <t>GoldenCollar</t>
+  </si>
+  <si>
+    <t>金领</t>
+  </si>
+  <si>
+    <t>GuideMaskType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Rect</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1242,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1281,12 @@
       <sz val="10.5"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1501,137 +1773,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1660,6 +1932,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1979,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L125"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -2327,7 +2605,9 @@
       <c r="H29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J29" s="5">
         <v>0</v>
       </c>
@@ -2346,7 +2626,9 @@
       <c r="H30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="J30" s="7">
         <v>1</v>
       </c>
@@ -2365,7 +2647,9 @@
       <c r="H31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J31" s="7">
         <v>2</v>
       </c>
@@ -2384,7 +2668,9 @@
       <c r="H32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="J32" s="7">
         <v>3</v>
       </c>
@@ -2409,7 +2695,9 @@
       <c r="H33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="J33" s="7">
         <v>1</v>
       </c>
@@ -2428,7 +2716,9 @@
       <c r="H34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J34" s="7">
         <v>2</v>
       </c>
@@ -2447,7 +2737,9 @@
       <c r="H35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J35" s="7">
         <v>3</v>
       </c>
@@ -2466,7 +2758,9 @@
       <c r="H36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J36" s="7">
         <v>4</v>
       </c>
@@ -2491,7 +2785,9 @@
       <c r="H37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="J37" s="7">
         <v>1</v>
       </c>
@@ -2510,7 +2806,9 @@
       <c r="H38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J38" s="7">
         <v>2</v>
       </c>
@@ -2529,7 +2827,9 @@
       <c r="H39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="J39" s="7">
         <v>3</v>
       </c>
@@ -2548,7 +2848,9 @@
       <c r="H40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="J40" s="7">
         <v>4</v>
       </c>
@@ -2567,7 +2869,9 @@
       <c r="H41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="J41" s="7">
         <v>5</v>
       </c>
@@ -2586,7 +2890,9 @@
       <c r="H42" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="J42" s="7">
         <v>6</v>
       </c>
@@ -2605,7 +2911,9 @@
       <c r="H43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J43" s="7">
         <v>101</v>
       </c>
@@ -2624,7 +2932,9 @@
       <c r="H44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="J44" s="7">
         <v>102</v>
       </c>
@@ -2649,7 +2959,9 @@
       <c r="H45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J45" s="7">
         <v>1</v>
       </c>
@@ -2668,7 +2980,9 @@
       <c r="H46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="J46" s="7">
         <v>2</v>
       </c>
@@ -2687,7 +3001,9 @@
       <c r="H47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J47" s="7">
         <v>3</v>
       </c>
@@ -2706,7 +3022,9 @@
       <c r="H48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="J48" s="7">
         <v>4</v>
       </c>
@@ -2725,7 +3043,9 @@
       <c r="H49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="J49" s="7">
         <v>5</v>
       </c>
@@ -2744,7 +3064,9 @@
       <c r="H50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="J50" s="7">
         <v>6</v>
       </c>
@@ -2763,7 +3085,9 @@
       <c r="H51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="J51" s="7">
         <v>7</v>
       </c>
@@ -2788,7 +3112,9 @@
       <c r="H52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J52" s="7">
         <v>1</v>
       </c>
@@ -2807,7 +3133,9 @@
       <c r="H53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="J53" s="7">
         <v>2</v>
       </c>
@@ -2826,7 +3154,9 @@
       <c r="H54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="J54" s="7">
         <v>3</v>
       </c>
@@ -2845,7 +3175,9 @@
       <c r="H55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="J55" s="7">
         <v>4</v>
       </c>
@@ -2864,7 +3196,9 @@
       <c r="H56" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="J56" s="7">
         <v>5</v>
       </c>
@@ -2883,7 +3217,9 @@
       <c r="H57" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="J57" s="7">
         <v>6</v>
       </c>
@@ -2902,7 +3238,9 @@
       <c r="H58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="J58" s="7">
         <v>7</v>
       </c>
@@ -2921,7 +3259,9 @@
       <c r="H59" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="J59" s="7">
         <v>8</v>
       </c>
@@ -2940,7 +3280,9 @@
       <c r="H60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="J60" s="7">
         <v>9</v>
       </c>
@@ -2959,7 +3301,9 @@
       <c r="H61" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="J61" s="7">
         <v>10</v>
       </c>
@@ -2978,7 +3322,9 @@
       <c r="H62" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="J62" s="7">
         <v>11</v>
       </c>
@@ -2997,7 +3343,9 @@
       <c r="H63" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="J63" s="7">
         <v>12</v>
       </c>
@@ -3016,7 +3364,9 @@
       <c r="H64" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="J64" s="7">
         <v>13</v>
       </c>
@@ -3035,7 +3385,9 @@
       <c r="H65" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="J65" s="7">
         <v>14</v>
       </c>
@@ -3054,7 +3406,9 @@
       <c r="H66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="J66" s="7">
         <v>15</v>
       </c>
@@ -3073,7 +3427,9 @@
       <c r="H67" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="J67" s="7">
         <v>16</v>
       </c>
@@ -3092,7 +3448,9 @@
       <c r="H68" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="J68" s="7">
         <v>17</v>
       </c>
@@ -3111,7 +3469,9 @@
       <c r="H69" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="J69" s="7">
         <v>18</v>
       </c>
@@ -3130,7 +3490,9 @@
       <c r="H70" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="J70" s="7">
         <v>19</v>
       </c>
@@ -3149,7 +3511,9 @@
       <c r="H71" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="J71" s="7">
         <v>20</v>
       </c>
@@ -3168,7 +3532,9 @@
       <c r="H72" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="J72" s="7">
         <v>21</v>
       </c>
@@ -3187,7 +3553,9 @@
       <c r="H73" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="J73" s="7">
         <v>22</v>
       </c>
@@ -3206,7 +3574,9 @@
       <c r="H74" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="J74" s="7">
         <v>23</v>
       </c>
@@ -3225,7 +3595,9 @@
       <c r="H75" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="J75" s="7">
         <v>24</v>
       </c>
@@ -3244,7 +3616,9 @@
       <c r="H76" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="J76" s="7">
         <v>25</v>
       </c>
@@ -3263,7 +3637,9 @@
       <c r="H77" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="J77" s="7">
         <v>601</v>
       </c>
@@ -3282,7 +3658,9 @@
       <c r="H78" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="J78" s="7">
         <v>701</v>
       </c>
@@ -3307,7 +3685,9 @@
       <c r="H79" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="J79" s="7">
         <v>1</v>
       </c>
@@ -3326,7 +3706,9 @@
       <c r="H80" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="J80" s="7">
         <v>2</v>
       </c>
@@ -3345,7 +3727,9 @@
       <c r="H81" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="J81" s="7">
         <v>3</v>
       </c>
@@ -3364,7 +3748,9 @@
       <c r="H82" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="J82" s="7">
         <v>4</v>
       </c>
@@ -3383,7 +3769,9 @@
       <c r="H83" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J83" s="7">
         <v>5</v>
       </c>
@@ -3402,7 +3790,9 @@
       <c r="H84" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="J84" s="7">
         <v>6</v>
       </c>
@@ -3421,7 +3811,9 @@
       <c r="H85" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="J85" s="7">
         <v>7</v>
       </c>
@@ -3446,7 +3838,9 @@
       <c r="H86" t="s">
         <v>182</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="J86">
         <v>1</v>
       </c>
@@ -3465,7 +3859,9 @@
       <c r="H87" t="s">
         <v>184</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="J87">
         <v>2</v>
       </c>
@@ -3484,7 +3880,9 @@
       <c r="H88" t="s">
         <v>186</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="J88">
         <v>3</v>
       </c>
@@ -3494,27 +3892,23 @@
     </row>
     <row r="89" customHeight="1" spans="1:11">
       <c r="A89" s="5"/>
-      <c r="B89" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" t="s">
+        <v>188</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I89" s="5"/>
       <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>190</v>
+        <v>4</v>
+      </c>
+      <c r="K89" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:11">
@@ -3526,14 +3920,16 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" t="s">
+        <v>190</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I90" s="5"/>
       <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:11">
@@ -3545,39 +3941,37 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" t="s">
+        <v>192</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I91" s="5"/>
       <c r="J91">
-        <v>3</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>194</v>
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:11">
       <c r="A92" s="5"/>
-      <c r="B92" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I92" s="5"/>
+      <c r="H92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>196</v>
+        <v>7</v>
+      </c>
+      <c r="K92" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:11">
@@ -3589,14 +3983,16 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" t="s">
+        <v>196</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I93" s="5"/>
       <c r="J93">
-        <v>201</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="K93" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:11">
@@ -3608,14 +4004,16 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" t="s">
+        <v>198</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I94" s="5"/>
       <c r="J94">
-        <v>202</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="K94" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:11">
@@ -3627,14 +4025,16 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I95" s="5"/>
       <c r="J95">
-        <v>203</v>
-      </c>
-      <c r="K95" s="9" t="s">
-        <v>202</v>
+        <v>10</v>
+      </c>
+      <c r="K95" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:11">
@@ -3646,32 +4046,42 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" t="s">
+        <v>202</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I96" s="5"/>
       <c r="J96">
-        <v>301</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>204</v>
+        <v>11</v>
+      </c>
+      <c r="K96" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:11">
       <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="B97" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" t="s">
         <v>205</v>
       </c>
-      <c r="I97" s="5"/>
+      <c r="I97" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="J97">
-        <v>302</v>
-      </c>
-      <c r="K97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3686,11 +4096,13 @@
       <c r="H98" t="s">
         <v>207</v>
       </c>
-      <c r="I98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="J98">
-        <v>303</v>
-      </c>
-      <c r="K98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K98" s="5" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3705,30 +4117,40 @@
       <c r="H99" t="s">
         <v>209</v>
       </c>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="J99">
-        <v>304</v>
-      </c>
-      <c r="K99" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K99" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:11">
       <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="B100" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
-      <c r="H100" t="s">
-        <v>211</v>
-      </c>
-      <c r="I100" s="5"/>
+      <c r="H100" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="J100">
-        <v>401</v>
-      </c>
-      <c r="K100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3743,9 +4165,11 @@
       <c r="H101" t="s">
         <v>213</v>
       </c>
-      <c r="I101" s="5"/>
+      <c r="I101" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="J101">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="K101" s="9" t="s">
         <v>214</v>
@@ -3762,9 +4186,11 @@
       <c r="H102" t="s">
         <v>215</v>
       </c>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="J102">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>216</v>
@@ -3781,9 +4207,11 @@
       <c r="H103" t="s">
         <v>217</v>
       </c>
-      <c r="I103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="J103">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>218</v>
@@ -3800,9 +4228,11 @@
       <c r="H104" t="s">
         <v>219</v>
       </c>
-      <c r="I104" s="5"/>
+      <c r="I104" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="J104">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>220</v>
@@ -3819,9 +4249,11 @@
       <c r="H105" t="s">
         <v>221</v>
       </c>
-      <c r="I105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="J105">
-        <v>406</v>
+        <v>302</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>222</v>
@@ -3838,9 +4270,11 @@
       <c r="H106" t="s">
         <v>223</v>
       </c>
-      <c r="I106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="J106">
-        <v>501</v>
+        <v>303</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>224</v>
@@ -3857,9 +4291,11 @@
       <c r="H107" t="s">
         <v>225</v>
       </c>
-      <c r="I107" s="5"/>
+      <c r="I107" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="J107">
-        <v>502</v>
+        <v>304</v>
       </c>
       <c r="K107" s="9" t="s">
         <v>226</v>
@@ -3876,9 +4312,11 @@
       <c r="H108" t="s">
         <v>227</v>
       </c>
-      <c r="I108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="J108">
-        <v>503</v>
+        <v>401</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>228</v>
@@ -3895,9 +4333,11 @@
       <c r="H109" t="s">
         <v>229</v>
       </c>
-      <c r="I109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="J109">
-        <v>504</v>
+        <v>402</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>230</v>
@@ -3914,9 +4354,11 @@
       <c r="H110" t="s">
         <v>231</v>
       </c>
-      <c r="I110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="J110">
-        <v>505</v>
+        <v>403</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>232</v>
@@ -3933,9 +4375,11 @@
       <c r="H111" t="s">
         <v>233</v>
       </c>
-      <c r="I111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="J111">
-        <v>506</v>
+        <v>404</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>234</v>
@@ -3952,9 +4396,11 @@
       <c r="H112" t="s">
         <v>235</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="J112">
-        <v>507</v>
+        <v>405</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>236</v>
@@ -3971,9 +4417,11 @@
       <c r="H113" t="s">
         <v>237</v>
       </c>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="J113">
-        <v>508</v>
+        <v>406</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>238</v>
@@ -3981,27 +4429,23 @@
     </row>
     <row r="114" customHeight="1" spans="1:11">
       <c r="A114" s="5"/>
-      <c r="B114" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="6" t="s">
+      <c r="H114" t="s">
+        <v>239</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I114" s="5"/>
       <c r="J114">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:11">
@@ -4012,15 +4456,17 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="6" t="s">
+      <c r="H115" t="s">
+        <v>241</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I115" s="5"/>
       <c r="J115">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:11">
@@ -4031,15 +4477,17 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="6" t="s">
+      <c r="H116" t="s">
+        <v>243</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I116" s="5"/>
       <c r="J116">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:11">
@@ -4050,40 +4498,38 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="6" t="s">
+      <c r="H117" t="s">
+        <v>245</v>
+      </c>
+      <c r="I117" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I117" s="5"/>
       <c r="J117">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:11">
       <c r="A118" s="5"/>
-      <c r="B118" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C118" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D118" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I118" s="5"/>
+      <c r="H118" t="s">
+        <v>247</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="J118">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:11">
@@ -4094,15 +4540,17 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="10" t="s">
+      <c r="H119" t="s">
+        <v>249</v>
+      </c>
+      <c r="I119" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I119" s="5"/>
       <c r="J119">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:11">
@@ -4113,15 +4561,17 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="10" t="s">
+      <c r="H120" t="s">
+        <v>251</v>
+      </c>
+      <c r="I120" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I120" s="5"/>
       <c r="J120">
-        <v>2</v>
+        <v>507</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:11">
@@ -4132,31 +4582,41 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="10" t="s">
+      <c r="H121" t="s">
+        <v>253</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I121" s="5"/>
       <c r="J121">
-        <v>3</v>
+        <v>508</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:11">
       <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="B122" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="I122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="J122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>257</v>
@@ -4170,12 +4630,14 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="J123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K123" s="9" t="s">
         <v>259</v>
@@ -4189,12 +4651,14 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="10" t="s">
+      <c r="H124" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="I124" s="5"/>
+      <c r="I124" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="J124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K124" s="9" t="s">
         <v>261</v>
@@ -4208,15 +4672,661 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="10" t="s">
+      <c r="H125" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="J125">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K125" s="9" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:11">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:11">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:11">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:11">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:11">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J130">
+        <v>4</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:11">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:11">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J132">
+        <v>6</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:11">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J133">
+        <v>7</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:11">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J134">
+        <v>8</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:11">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J135">
+        <v>9</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:11">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:11">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J137">
+        <v>11</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:11">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J138">
+        <v>12</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:11">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139">
+        <v>13</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:11">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J140">
+        <v>14</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:11">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J141">
+        <v>15</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:11">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J142">
+        <v>16</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:11">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J143">
+        <v>17</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:11">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J144">
+        <v>18</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:11">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J145">
+        <v>19</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:11">
+      <c r="B146" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:11">
+      <c r="H147" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J147" s="2">
+        <v>2</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:11">
+      <c r="B148" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:11">
+      <c r="H149" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J149" s="2">
+        <v>2</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:11">
+      <c r="H150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J150" s="2">
+        <v>3</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:11">
+      <c r="H151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J151" s="2">
+        <v>4</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:11">
+      <c r="B152" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J152" s="5">
+        <v>1</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:11">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="J153" s="5">
+        <v>2</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:11">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J154" s="5">
+        <v>3</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:11">
+      <c r="B155" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:11">
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:11">
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I157" s="11"/>
+      <c r="J157" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
